--- a/DMA/A2DMA-RESET_BOM.xlsx
+++ b/DMA/A2DMA-RESET_BOM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralle\Documents\A2DMA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D98553-37BD-4088-AB5E-A02AA0D68476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A01B86-038D-43A3-AA6B-3CE444C68598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,9 +109,6 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>5nF</t>
-  </si>
-  <si>
     <t>R1,R3,R4</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>100k</t>
+  </si>
+  <si>
+    <t>20nF</t>
   </si>
 </sst>
 </file>
@@ -209,7 +209,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -231,10 +231,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,7 +580,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="20" customHeight="1"/>
@@ -615,28 +612,28 @@
     </row>
     <row r="3" spans="1:3" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="20" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="20" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -663,7 +660,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -699,10 +696,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="20" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -710,10 +707,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="20" customHeight="1">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -721,10 +718,10 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="20" customHeight="1">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -732,10 +729,10 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="20" customHeight="1">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -743,10 +740,10 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="20" customHeight="1">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
